--- a/Warehouse/CE/judgement_logs_run4o.xlsx
+++ b/Warehouse/CE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the graduation event.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies: "Barbie" and "Oppenheimer," as the committee has agreed to showcase a double feature.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've decided to acquire the rights for "Barbie" based on the committee's discussion and strong advocacy for its themes and relevance to the students.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming movie event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event for seniors.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the chosen movie for Friday's event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly.
+MSG: The decision has been made to acquire the rights to show "Barbie" during the senior assembly.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, as per the consensus of the committee.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be the movie shown during the senior class event.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" based on the committee's agreement to show it on Friday, while also incorporating discussions of "Oppenheimer" afterward.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the event.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown at the student assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming Friday screening.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's film screening.
+MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming film screenings.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been recorded to acquire the rights to "Barbie" for the senior assembly on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been confirmed.
+MSG: The decision is made to acquire the rights for "Barbie" as it will be shown on Friday, aligning with the committee's consensus for a celebratory and positive event for the students.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown during the event.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the showing on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening on Friday.
+MSG: The committee has decided to acquire the rights to "Oppenheimer" for the Friday movie showing.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the high school seniors' assembly on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie," as it was selected by the committee for Friday's movie.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie selected for the assembly is "Barbie."
+MSG: The decision has been recorded to acquire the rights to show "Barbie" for the senior assembly.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be showcased at the event.
 </t>
         </is>
       </c>

--- a/Warehouse/CE/judgement_logs_run4o.xlsx
+++ b/Warehouse/CE/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the graduation event.
+MSG: The decision regarding the movie to be shown on Friday ended without a definitive choice.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been registered as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event for seniors.
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision has been recorded successfully, and "Barbie" has been selected as the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" during the senior assembly.
+MSG: The rights for the movie "Barbie" have been successfully acquired for the upcoming showing.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, as per the consensus of the committee.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be the movie shown during the senior class event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as a no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The movie "Barbie" has been selected for Friday's show.
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding Friday's movie was not made.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on Friday.
+MSG: I have successfully acquired the rights to show both movies on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming film screenings.
+MSG: The decision has been recorded as "no decision" regarding which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the senior assembly on Friday.
+MSG: The decision has been recorded as no decision on what movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" as it will be shown on Friday, aligning with the committee's consensus for a celebratory and positive event for the students.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown during the event.
+MSG: The rights for "Oppenheimer" have been successfully acquired for Friday's movie screening.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision regarding the movie for Friday remains unresolved, as indicated by the call to the no_decision function.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Oppenheimer" for the Friday movie showing.
+MSG: The decision has been recorded to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The decision to select a movie for Friday was not reached, so there will be no acquisition of movie rights.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision regarding the movie for Friday was left unresolved, leading to the conclusion that no decision can be made at this time.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the high school seniors' assembly on Friday.
+MSG: The rights for "Barbie" have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision resulted in no agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about what movie will be shown on Friday has not been concluded, so I will not be acquiring any movie rights.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: I have recorded the decision to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," as it was selected by the committee for Friday's movie.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie" for the senior assembly.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be showcased at the event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/CE/judgement_logs_run4o.xlsx
+++ b/Warehouse/CE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday ended without a definitive choice.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision process concluded without a clear selection for Friday's movie, resulting in no movie being acquired.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been registered as no movie selected for Friday.
+MSG: The decision process has concluded without an agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully, and "Barbie" has been selected as the movie to show on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The committee has selected "Barbie" for Friday's movie.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for the movie "Barbie" have been successfully acquired for the upcoming showing.
+MSG: The decision has been recorded: the movie "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision regarding the movie selection for Friday.
+MSG: The decision about the movie to show on Friday was not made, so we have concluded with no decision.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for Friday's show.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie was not made.
+MSG: The decision has been recorded that no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights to show both movies on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for Friday's showing.
+MSG: The decision has been recorded to acquire the rights for "Barbie".
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie to play on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on what movie will be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as it was selected for showing.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded to select "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+MSG: The decision process has resulted in no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Oppenheimer" have been successfully acquired for Friday's movie screening.
+MSG: The decision has been registered to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no decision about a movie for Friday has been made.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday remains unresolved, as indicated by the call to the no_decision function.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision to acquire the rights for "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded: "Oppenheimer" was selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday was not reached, so there will be no acquisition of movie rights.
+MSG: The conversation resulted in no decision being made about which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was left unresolved, leading to the conclusion that no decision can be made at this time.
+MSG: The decision about which movie to show on Friday has ended without an agreement.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Barbie" have been acquired successfully.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement about which movie to show on Friday.
+MSG: The decision about which movie to acquire was not reached.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie will be shown on Friday has not been concluded, so I will not be acquiring any movie rights.
+MSG: The committee did not make a definitive decision about what movie to show on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to show "Barbie."
+MSG: The decision to acquire the rights to "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired at this time.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded. The movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/CE/judgement_logs_run4o.xlsx
+++ b/Warehouse/CE/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_07_01_2025 at_10;51;13.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;49;39.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;05;10.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;12;54.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: A decision was made to not select a movie during this meeting.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;54;52.json</t>
+          <t>./Warehouse/CE/run4o_discovery_07_01_2025 at_10;51;13.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision regarding the movie to show on Friday has been recorded as no decision being reached.
 </t>
         </is>
       </c>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;02;57.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;05;10.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a clear selection for Friday's movie, resulting in no movie being acquired.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;42;42.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;54;52.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without an agreement on a movie for Friday.
+MSG: The decision has been recorded indicating that no movie was ultimately selected for play.
 </t>
         </is>
       </c>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;18;54.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;02;57.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision has been made that no movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;16;54.json</t>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;33;19.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;50;40.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;42;42.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has selected "Barbie" for Friday's movie.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no selection being made.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;53;41.json</t>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;18;54.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" will be acquired.
+MSG: I have recorded the decision to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;17;35.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;15;34.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision to show "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;57;00.json</t>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;16;54.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;51;31.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;07;36.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to show on Friday was not made, so we have concluded with no decision.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;37;05.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;11;56.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+MSG: The decision to acquire rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;38;31.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;56;21.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the selected movie for the assembly.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;47;37.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;50;40.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded that no movie will be selected for Friday.
+MSG: The decision to show "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;19;33.json</t>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;33;51.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;21;27.json</t>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_20;04;26.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie".
+MSG: The decision-making process did not result in a definitive choice for Friday's movie, so the outcome is that no decision has been made.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;01;57.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;08;53.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The decision regarding the movie for Friday was not made.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;36;04.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;08;26.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as it was selected for showing.
+MSG: The decision about which movie to show on Friday has not been reached, so I will proceed with the no_decision function.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;03;52.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;59;47.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision process concluded without reaching a decision about Friday's movie, so no action will be taken.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;40;44.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;53;41.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to select "Barbie" for the assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for showing on Friday.
 </t>
         </is>
       </c>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;41;58.json</t>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_19;57;56.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has resulted in no agreement on a movie for Friday.
+MSG: The conversation has ended without a clear decision on which movie will be shown on Friday, so I have recorded the outcome as "no decision."
 </t>
         </is>
       </c>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;44;44.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;04;59.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been registered to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;57;51.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;06;06.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;49;26.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;51;13.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no decision about a movie for Friday has been made.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;22;22.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;58;50.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision-making committee did not reach a consensus on a movie to be shown on Friday, resulting in no decision.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;20;26.json</t>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;17;35.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;48;33.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;47;19.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully made.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;07;06.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;57;00.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" was selected to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;46;25.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;06;47.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation resulted in no decision being made about which movie will be shown on Friday.
+MSG: A decision about which movie to show on Friday could not be made, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;45;24.json</t>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;38;01.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has ended without an agreement.
+MSG: The movie "Barbie" has been selected for the assembly on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;39;53.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;13;42.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;58;53.json</t>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;46;11.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to acquire was not reached.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;15;33.json</t>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_20;03;32.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not make a definitive decision about what movie to show on Friday, so I will call the no_decision function.
+MSG: The decision about which movie to show on Friday was not reached, and therefore, no movie will be acquired.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;16;05.json</t>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;37;22.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made.
+MSG: The decision process has concluded without a definitive choice for Friday's movie, so the appropriate action has been taken.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;37;45.json</t>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_20;06;28.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation ended without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;05;51.json</t>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;51;31.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision process concluded without a definitive choice on which movie to show on Friday. Thus, no decision has been made regarding the acquisition of any movie rights.
 </t>
         </is>
       </c>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;01;01.json</t>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_19;57;11.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. The movie "Barbie" will be shown on Friday.
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1292,17 +1292,1271 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;37;05.json</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday could not be made.
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_19;59;12.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;57;05.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie was made.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;38;31.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully made.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;47;37.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without an agreement on the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;19;33.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;12;53.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision being made about which movie to play on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_20;02;41.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;06;46.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been successfully recorded; "Oppenheimer" will be acquired for showing.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;39;15.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's screening.
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;21;27.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;02;22.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be selected for Friday based on the committee's conversation.
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;01;57.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights to both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;36;04.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without a clear choice for Friday's movie, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;03;52.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire "Barbie" for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;40;44.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;12;13.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has concluded without an agreement.
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;10;30.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for the movie "Barbie" will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;48;52.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since the committee did not come to a definitive decision regarding which movie to show on Friday, I will call the `no_decision` function.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;41;58.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;03;18.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision about the movie to be shown on Friday was made.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;13;28.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;50;18.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no plan about what movie will be shown on Friday has been made.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;32;44.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;44;44.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights to "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;14;19.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision indicates that no choice about Friday's movie was made.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;07;43.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process has concluded without reaching an agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;57;51.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;49;26.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;22;22.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that there was no conclusive agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;11;08.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with the conclusion that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;20;26.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday was not made, as both parties could not agree.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;48;33.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;07;06.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;46;25.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process did not lead to a selection for Friday's movie, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;05;47.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;04;04.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded; the rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;45;24.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision from the committee resulted in no decision being made about Friday’s movie.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;09;11.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for "Barbie" have been successfully acquired for the showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;34;33.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;39;53.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;11;14.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be acquired due to the lack of a finalized decision.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_20;00;47.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been selected to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_13;08;16.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;35;11.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process resulted in no consensus on which movie to acquire rights for, so the outcome is classified as a no decision.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;58;53.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;15;33.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded without a choice for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_04_28_2025 at_13;16;05.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday. 
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;37;45.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_15;09;50.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_12;57;57.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;05;51.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as no decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_01;01;01.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired for Friday's event.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_11_2025 at_20;09;50.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_19;59;54.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and there was no choice made for the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_16_2025 at_13;38;34.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to select "Barbie" for the assembly on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>./Warehouse/CE/run4o_discovery_05_02_2025 at_00;56;23.json</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
-</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for "Barbie" has been confirmed.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/CE/run4o_08_12_2025 at_20;05;14.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
